--- a/Operations/Flight_software/data/coordinates.xlsx
+++ b/Operations/Flight_software/data/coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\OneDrive\Bureaublad\DSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidde Hennecken\Desktop\DSE_local\Flight_software\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20316308-5367-4AC6-A834-D618A578BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8BF64-8F3E-49A5-B761-82CD3E911E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE77B4C4-F671-45B4-9788-1A698BC6BF7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE77B4C4-F671-45B4-9788-1A698BC6BF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="8">
   <si>
     <t>Park</t>
   </si>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC7DF90-12E8-4C96-B568-F891C372E959}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -440,817 +440,949 @@
         <v>150.67381789791301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-33.672638957337497</v>
+        <v>-33.409058537819703</v>
       </c>
       <c r="C3">
-        <v>150.609144130262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.78927629911001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>-33.673333250928103</v>
+        <v>-33.3815413129348</v>
       </c>
       <c r="C4">
-        <v>150.28807185531301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.98153704722901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>-33.243066318036902</v>
+        <v>-33.2059143861145</v>
       </c>
       <c r="C5">
-        <v>150.14636871576701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.98016375617101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>-32.453445095678298</v>
+        <v>-33.102145204536903</v>
       </c>
       <c r="C6">
-        <v>150.28247846521799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151.136461080266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-32.653729712093799</v>
+        <v>-32.900406572546999</v>
       </c>
       <c r="C7">
-        <v>151.02817698348301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151.12003853871599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>-32.749152328232903</v>
+        <v>-32.558326810614197</v>
       </c>
       <c r="C8">
-        <v>151.10290440745899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.99309749505201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>-33.386391096367397</v>
+        <v>-32.339544521767799</v>
       </c>
       <c r="C9">
-        <v>150.986477322816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-33.416870729449599</v>
-      </c>
-      <c r="C10">
-        <v>150.804322062582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.62303207807099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>-33.607427830515498</v>
+        <v>-32.409065175761199</v>
       </c>
       <c r="C11">
-        <v>150.814097828559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.493512320381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>-33.672638957337497</v>
+        <v>-32.458905237013298</v>
       </c>
       <c r="C12">
-        <v>150.609144130262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150.27996556086299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13">
+        <v>-32.588591771457097</v>
+      </c>
+      <c r="C13">
+        <v>150.11105076073099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>-32.782192845500497</v>
+      </c>
+      <c r="C14">
+        <v>150.197568097469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>-33.015110664447597</v>
+      </c>
+      <c r="C15">
+        <v>150.174908795097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>-33.520329407230903</v>
+      </c>
+      <c r="C19">
+        <v>150.156369364987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>-33.614731969178898</v>
+      </c>
+      <c r="C20">
+        <v>150.28133885126499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>-33.698749078050497</v>
+      </c>
+      <c r="C21">
+        <v>150.29095188697599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>-33.728449767164498</v>
+      </c>
+      <c r="C22">
+        <v>150.402188460936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>-33.709602444118701</v>
+      </c>
+      <c r="C23">
+        <v>150.538830921206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>-33.667323711329502</v>
+      </c>
+      <c r="C24">
+        <v>150.647320914787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>-33.564396781825501</v>
+      </c>
+      <c r="C25">
+        <v>150.65006749033699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>-33.488838960402099</v>
+      </c>
+      <c r="C26">
+        <v>150.69950596842401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>-33.455045563009001</v>
+      </c>
+      <c r="C27">
+        <v>150.80593602541799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>-33.409058537819703</v>
+      </c>
+      <c r="C28">
+        <v>150.78927629911001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
         <v>-33.159249208810699</v>
       </c>
-      <c r="C13">
+      <c r="C29">
         <v>150.27262305892</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>-33.115551423175297</v>
       </c>
-      <c r="C14">
+      <c r="C30">
         <v>150.32068824405499</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>-33.293655662853801</v>
       </c>
-      <c r="C15">
+      <c r="C31">
         <v>150.186105725678</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>-33.3177580264271</v>
       </c>
-      <c r="C16">
+      <c r="C32">
         <v>150.34815406413199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>-33.362501882936499</v>
       </c>
-      <c r="C17">
+      <c r="C33">
         <v>150.74228858469701</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
         <v>-33.348736989658398</v>
       </c>
-      <c r="C18">
+      <c r="C34">
         <v>150.94553565661201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
         <v>-33.214415301973602</v>
       </c>
-      <c r="C19">
+      <c r="C35">
         <v>150.89472388946899</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
         <v>-32.937085324427699</v>
       </c>
-      <c r="C20">
+      <c r="C36">
         <v>150.902963635492</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>-33.153063637374501</v>
       </c>
-      <c r="C21">
+      <c r="C37">
         <v>150.227704648322</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
         <v>-33.0942511190147</v>
       </c>
-      <c r="C22">
+      <c r="C38">
         <v>150.330591680835</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
         <v>-32.980617967928403</v>
       </c>
-      <c r="C23">
+      <c r="C39">
         <v>150.65558405337899</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
         <v>-32.803184300194097</v>
       </c>
-      <c r="C24">
+      <c r="C40">
         <v>150.82553545443901</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
         <v>-32.941135772880301</v>
       </c>
-      <c r="C25">
+      <c r="C41">
         <v>150.85828223028699</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
         <v>-32.973806984606398</v>
       </c>
-      <c r="C26">
+      <c r="C42">
         <v>150.92567353232999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
         <v>-33.554056060158302</v>
       </c>
-      <c r="C27">
+      <c r="C43">
         <v>150.32653672586599</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
         <v>-33.607828566143901</v>
       </c>
-      <c r="C28">
+      <c r="C44">
         <v>150.37872178401199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
         <v>-33.489942966660301</v>
       </c>
-      <c r="C29">
+      <c r="C45">
         <v>150.41786057837601</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
         <v>-33.543183078728099</v>
       </c>
-      <c r="C30">
+      <c r="C46">
         <v>150.569609234301</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <v>-33.449561700659501</v>
       </c>
-      <c r="C31">
+      <c r="C47">
         <v>150.75157028964901</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>-33.5646265012819</v>
       </c>
-      <c r="C32">
+      <c r="C48">
         <v>150.237779227771</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
         <v>-33.639546410344501</v>
       </c>
-      <c r="C33">
+      <c r="C49">
         <v>150.30163725944999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
         <v>-33.644119562579803</v>
       </c>
-      <c r="C34">
+      <c r="C50">
         <v>150.39776762971999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
         <v>-33.538875638700702</v>
       </c>
-      <c r="C35">
+      <c r="C51">
         <v>150.42523344979699</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
         <v>-33.679966783557298</v>
       </c>
-      <c r="C36">
+      <c r="C52">
         <v>150.561875517571</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
         <v>-33.465746776564202</v>
       </c>
-      <c r="C37">
+      <c r="C53">
         <v>150.42867957094001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
         <v>-33.213080361027103</v>
       </c>
-      <c r="C38">
+      <c r="C54">
         <v>150.27097531442101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
         <v>-33.240981933416101</v>
       </c>
-      <c r="C39">
+      <c r="C55">
         <v>150.204932605538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
         <v>-33.311811897064601</v>
       </c>
-      <c r="C40">
+      <c r="C56">
         <v>150.19159064384399</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
         <v>-33.329092372624402</v>
       </c>
-      <c r="C41">
+      <c r="C57">
         <v>150.33034704230499</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
         <v>-33.272221127168798</v>
       </c>
-      <c r="C42">
+      <c r="C58">
         <v>150.61519792045701</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
         <v>-33.351941933459301</v>
       </c>
-      <c r="C43">
+      <c r="C59">
         <v>150.72526910251801</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
         <v>-32.955353492774002</v>
       </c>
-      <c r="C44">
+      <c r="C60">
         <v>150.41672138711999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
         <v>-32.824547060972797</v>
       </c>
-      <c r="C45">
+      <c r="C61">
         <v>150.249767557089</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
         <v>-32.622475558813598</v>
       </c>
-      <c r="C46">
+      <c r="C62">
         <v>150.118498834517</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
         <v>-32.705861001667003</v>
       </c>
-      <c r="C47">
+      <c r="C63">
         <v>150.753278311831</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
         <v>-32.798258150726902</v>
       </c>
-      <c r="C48">
+      <c r="C64">
         <v>150.79585033295001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
         <v>-32.823650556743502</v>
       </c>
-      <c r="C49">
+      <c r="C65">
         <v>150.79447704194601</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
         <v>-32.622621672599898</v>
       </c>
-      <c r="C50">
+      <c r="C66">
         <v>150.95515208939699</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
         <v>-32.392141629365902</v>
       </c>
-      <c r="C51">
+      <c r="C67">
         <v>150.64902133606299</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
         <v>-32.9201780115635</v>
       </c>
-      <c r="C52">
+      <c r="C68">
         <v>151.206803832313</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
         <v>-32.891046810658999</v>
       </c>
-      <c r="C53">
+      <c r="C69">
         <v>150.90295180780899</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
         <v>-32.958480916742701</v>
       </c>
-      <c r="C54">
+      <c r="C70">
         <v>150.90020522580201</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
         <v>-32.980371532500897</v>
       </c>
-      <c r="C55">
+      <c r="C71">
         <v>150.918058008852</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
         <v>-33.036225602376</v>
       </c>
-      <c r="C56">
+      <c r="C72">
         <v>150.94346389242301</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
         <v>-33.108725472137699</v>
       </c>
-      <c r="C57">
+      <c r="C73">
         <v>151.06431350179801</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
         <v>-33.3434941688705</v>
       </c>
-      <c r="C58">
+      <c r="C74">
         <v>150.93110388424299</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
         <v>-33.2120368618532</v>
       </c>
-      <c r="C59">
+      <c r="C75">
         <v>150.93797033926299</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
         <v>-33.249944422396297</v>
       </c>
-      <c r="C60">
+      <c r="C76">
         <v>150.94277685777601</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
         <v>-33.126349154621899</v>
       </c>
-      <c r="C61">
+      <c r="C77">
         <v>150.69527346297801</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
         <v>-33.296581153273998</v>
       </c>
-      <c r="C62">
+      <c r="C78">
         <v>150.70470698664599</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
         <v>-32.965374535852497</v>
       </c>
-      <c r="C63">
+      <c r="C79">
         <v>150.68273433100799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
         <v>-32.920427679941</v>
       </c>
-      <c r="C64">
+      <c r="C80">
         <v>150.744532426181</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
         <v>-32.801612109051703</v>
       </c>
-      <c r="C65">
+      <c r="C81">
         <v>150.87636836255101</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
         <v>-32.512564039008602</v>
       </c>
-      <c r="C66">
+      <c r="C82">
         <v>150.4739940986</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
         <v>-32.514880129254699</v>
       </c>
-      <c r="C67">
+      <c r="C83">
         <v>150.68822749520101</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
         <v>-32.731170613261298</v>
       </c>
-      <c r="C68">
+      <c r="C84">
         <v>150.148524130688</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
         <v>-32.867384081681998</v>
       </c>
-      <c r="C69">
+      <c r="C85">
         <v>150.292719686092</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
         <v>-32.9296494080846</v>
       </c>
-      <c r="C70">
+      <c r="C86">
         <v>150.36275752728901</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
         <v>-32.964222335524902</v>
       </c>
-      <c r="C71">
+      <c r="C87">
         <v>150.270747030031</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
         <v>-33.116182459676402</v>
       </c>
-      <c r="C72">
+      <c r="C88">
         <v>150.27349361234499</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
         <v>-33.179421754705402</v>
       </c>
-      <c r="C73">
+      <c r="C89">
         <v>150.26937373933299</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
         <v>-33.333304670579601</v>
       </c>
-      <c r="C74">
+      <c r="C90">
         <v>150.27486690334899</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
         <v>-33.507529925515698</v>
       </c>
-      <c r="C75">
+      <c r="C91">
         <v>150.37099727450101</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
         <v>-33.504094652552197</v>
       </c>
-      <c r="C76">
+      <c r="C92">
         <v>150.511072956894</v>
       </c>
     </row>
